--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -339,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -381,50 +381,41 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -973,10 +964,10 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -990,8 +981,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
         <v>4</v>
@@ -1006,8 +997,10 @@
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="15">
+        <v>1</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -1019,9 +1012,11 @@
       <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="25" t="s">
+      <c r="A6" s="15">
+        <v>2</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1030,9 +1025,11 @@
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="15">
+        <v>3</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1041,9 +1038,11 @@
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="25" t="s">
+      <c r="A8" s="15">
+        <v>4</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1052,9 +1051,11 @@
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="26" t="s">
+      <c r="A9" s="15">
+        <v>5</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1063,9 +1064,11 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="27" t="s">
+      <c r="A10" s="15">
+        <v>6</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1074,9 +1077,11 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="28" t="s">
+      <c r="A11" s="15">
+        <v>7</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1085,9 +1090,11 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="28" t="s">
+      <c r="A12" s="15">
+        <v>8</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1096,9 +1103,11 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="28" t="s">
+      <c r="A13" s="15">
+        <v>9</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1107,9 +1116,11 @@
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="28" t="s">
+      <c r="A14" s="15">
+        <v>10</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1118,9 +1129,11 @@
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="28" t="s">
+      <c r="A15" s="15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1129,9 +1142,11 @@
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="28" t="s">
+      <c r="A16" s="15">
+        <v>12</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1140,9 +1155,11 @@
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="28" t="s">
+      <c r="A17" s="15">
+        <v>13</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -1158,11 +1175,13 @@
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="15">
+        <v>14</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1171,9 +1190,11 @@
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="24" t="s">
+      <c r="A20" s="15">
+        <v>15</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -1182,9 +1203,11 @@
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="24" t="s">
+      <c r="A21" s="15">
+        <v>16</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -1193,9 +1216,11 @@
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="24" t="s">
+      <c r="A22" s="15">
+        <v>17</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1204,9 +1229,11 @@
       <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="26" t="s">
+      <c r="A23" s="15">
+        <v>18</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -1215,9 +1242,11 @@
       <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="26" t="s">
+      <c r="A24" s="15">
+        <v>19</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -1226,9 +1255,11 @@
       <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="26" t="s">
+      <c r="A25" s="15">
+        <v>20</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1237,9 +1268,11 @@
       <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="26" t="s">
+      <c r="A26" s="15">
+        <v>21</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -1248,9 +1281,11 @@
       <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A27" s="16"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="26" t="s">
+      <c r="A27" s="15">
+        <v>22</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1259,9 +1294,11 @@
       <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="26" t="s">
+      <c r="A28" s="15">
+        <v>23</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1270,9 +1307,11 @@
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="26" t="s">
+      <c r="A29" s="15">
+        <v>24</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -1281,9 +1320,11 @@
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="26" t="s">
+      <c r="A30" s="15">
+        <v>25</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -1292,9 +1333,11 @@
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="26" t="s">
+      <c r="A31" s="15">
+        <v>26</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -1303,9 +1346,11 @@
       <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="26" t="s">
+      <c r="A32" s="15">
+        <v>27</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="18" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -1314,9 +1359,11 @@
       <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="26" t="s">
+      <c r="A33" s="15">
+        <v>28</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -1325,9 +1372,11 @@
       <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="28" t="s">
+      <c r="A34" s="15">
+        <v>29</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="11" t="s">
@@ -1336,9 +1385,11 @@
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="28" t="s">
+      <c r="A35" s="15">
+        <v>30</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -1347,9 +1398,11 @@
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="28" t="s">
+      <c r="A36" s="15">
+        <v>31</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -1358,9 +1411,11 @@
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="28" t="s">
+      <c r="A37" s="15">
+        <v>32</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -1369,9 +1424,11 @@
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="28" t="s">
+      <c r="A38" s="15">
+        <v>33</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -1380,9 +1437,11 @@
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="28" t="s">
+      <c r="A39" s="15">
+        <v>34</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="7" t="s">
@@ -1391,9 +1450,11 @@
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="29" t="s">
+      <c r="A40" s="15">
+        <v>35</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="21" t="s">
         <v>38</v>
       </c>
       <c r="D40" s="7" t="s">
@@ -1402,9 +1463,11 @@
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A41" s="17"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="25" t="s">
+      <c r="A41" s="15">
+        <v>36</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="11" t="s">
@@ -1413,9 +1476,11 @@
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="26" t="s">
+      <c r="A42" s="15">
+        <v>37</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="7" t="s">
@@ -1424,9 +1489,11 @@
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="28" t="s">
+      <c r="A43" s="15">
+        <v>38</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D43" s="7" t="s">
@@ -1435,9 +1502,11 @@
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="28" t="s">
+      <c r="A44" s="15">
+        <v>39</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -1446,9 +1515,11 @@
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="28" t="s">
+      <c r="A45" s="15">
+        <v>40</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D45" s="7" t="s">
@@ -1457,9 +1528,11 @@
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="28" t="s">
+      <c r="A46" s="15">
+        <v>41</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D46" s="7" t="s">
@@ -1468,9 +1541,11 @@
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="28" t="s">
+      <c r="A47" s="15">
+        <v>42</v>
+      </c>
+      <c r="B47" s="24"/>
+      <c r="C47" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -1486,11 +1561,13 @@
       <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A49" s="15"/>
-      <c r="B49" s="19" t="s">
+      <c r="A49" s="15">
+        <v>43</v>
+      </c>
+      <c r="B49" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="7" t="s">
@@ -1499,9 +1576,11 @@
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A50" s="16"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="25" t="s">
+      <c r="A50" s="15">
+        <v>44</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -1510,9 +1589,11 @@
       <c r="E50" s="14"/>
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A51" s="16"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="25" t="s">
+      <c r="A51" s="15">
+        <v>45</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -1521,9 +1602,11 @@
       <c r="E51" s="14"/>
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A52" s="16"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="25" t="s">
+      <c r="A52" s="15">
+        <v>46</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="7" t="s">
@@ -1532,9 +1615,11 @@
       <c r="E52" s="14"/>
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A53" s="16"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="26" t="s">
+      <c r="A53" s="15">
+        <v>47</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D53" s="7" t="s">
@@ -1543,9 +1628,11 @@
       <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A54" s="16"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="28" t="s">
+      <c r="A54" s="15">
+        <v>48</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="7" t="s">
@@ -1554,9 +1641,11 @@
       <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A55" s="16"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="28" t="s">
+      <c r="A55" s="15">
+        <v>49</v>
+      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D55" s="7" t="s">
@@ -1565,9 +1654,11 @@
       <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A56" s="16"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="28" t="s">
+      <c r="A56" s="15">
+        <v>50</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D56" s="7" t="s">
@@ -1576,9 +1667,11 @@
       <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A57" s="16"/>
-      <c r="B57"/>
-      <c r="C57" s="29" t="s">
+      <c r="A57" s="15">
+        <v>51</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="21" t="s">
         <v>38</v>
       </c>
       <c r="D57" s="7" t="s">
@@ -1587,9 +1680,11 @@
       <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A58" s="17"/>
-      <c r="B58"/>
-      <c r="C58" s="25" t="s">
+      <c r="A58" s="15">
+        <v>52</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D58" s="11" t="s">
@@ -1598,9 +1693,11 @@
       <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A59" s="17"/>
-      <c r="B59"/>
-      <c r="C59" s="28" t="s">
+      <c r="A59" s="15">
+        <v>53</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D59" s="7" t="s">
@@ -1609,9 +1706,11 @@
       <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A60" s="17"/>
-      <c r="B60"/>
-      <c r="C60" s="28" t="s">
+      <c r="A60" s="15">
+        <v>54</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -1620,9 +1719,11 @@
       <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A61" s="17"/>
-      <c r="B61"/>
-      <c r="C61" s="28" t="s">
+      <c r="A61" s="15">
+        <v>55</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="7" t="s">
@@ -1631,9 +1732,11 @@
       <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A62" s="17"/>
-      <c r="B62"/>
-      <c r="C62" s="26" t="s">
+      <c r="A62" s="15">
+        <v>56</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -1642,9 +1745,11 @@
       <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A63" s="17"/>
-      <c r="B63"/>
-      <c r="C63" s="28" t="s">
+      <c r="A63" s="15">
+        <v>57</v>
+      </c>
+      <c r="B63" s="23"/>
+      <c r="C63" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D63" s="7" t="s">
@@ -1653,9 +1758,11 @@
       <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A64" s="17"/>
-      <c r="B64"/>
-      <c r="C64" s="28" t="s">
+      <c r="A64" s="15">
+        <v>58</v>
+      </c>
+      <c r="B64" s="24"/>
+      <c r="C64" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D64" s="7" t="s">
@@ -1673,10 +1780,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B5:B17"/>
-    <mergeCell ref="B19:B41"/>
-    <mergeCell ref="B49:B56"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B19:B47"/>
+    <mergeCell ref="B49:B64"/>
   </mergeCells>
   <conditionalFormatting sqref="D49:E56 D5:E17 D19:E47">
     <cfRule type="containsText" dxfId="23" priority="259" operator="containsText" text="Blocked">
